--- a/Config/Excel/DialogueData.xlsx
+++ b/Config/Excel/DialogueData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\BL_Aki_SnowCity\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED2A02-F928-45E6-A288-F6D6E7FC6E6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E283D12-C0C6-4C1C-9E33-3DC5F6B59D10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -135,6 +135,34 @@
   </si>
   <si>
     <t>ccccc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支选项文本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BranchText</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbbb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vvv,xxx</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +231,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -570,17 +601,17 @@
     <col min="2" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="26.375" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="21.25" customWidth="1"/>
-    <col min="13" max="14" width="23" customWidth="1"/>
+    <col min="6" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="14" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -600,9 +631,11 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -612,8 +645,9 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -633,9 +667,11 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -645,8 +681,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,9 +703,11 @@
         <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -678,8 +717,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -697,8 +737,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -716,8 +757,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
@@ -736,8 +778,12 @@
       <c r="F6" s="2">
         <v>1002</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10001</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -747,8 +793,9 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
@@ -767,8 +814,12 @@
       <c r="F7" s="2">
         <v>1003</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10002</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -778,8 +829,9 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
@@ -798,8 +850,12 @@
       <c r="F8" s="2">
         <v>1004</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>4444</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10003</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -809,8 +865,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
@@ -826,9 +883,15 @@
       <c r="E9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10004</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -838,8 +901,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -857,8 +921,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -876,8 +941,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -895,8 +961,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -914,8 +981,9 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -933,8 +1001,9 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -952,8 +1021,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -971,8 +1041,9 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -990,6 +1061,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Config/Excel/DialogueData.xlsx
+++ b/Config/Excel/DialogueData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\BL_Aki_SnowCity\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E283D12-C0C6-4C1C-9E33-3DC5F6B59D10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A1CAAF-1F86-4281-B0C7-7C552E006E37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -20,157 +20,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单句对话的ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>说话者名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>说话者头像路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>对话内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像在右边？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>InRight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一句对话的分支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回调</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeakerName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Content</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeakerPortrait</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BranchIDs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallBack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pig</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dog</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pig</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱上大师傅所发生的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏打水法规</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方闪电</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同体和</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rrrr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbbb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccccc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,1002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支选项文本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BranchText</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbbb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vvv,xxx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件对话ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话的角色ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复对话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeakerID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastWord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴拉巴拉-事件名-NextID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你终于醒了！我从雪崩里面把你救了出来，欢迎来到雪之城！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是雪之城，一位悲伤的神创造的奇迹。</t>
+  </si>
+  <si>
+    <t>我是雪人啊！</t>
+  </si>
+  <si>
+    <t>欢迎来到雪之城！</t>
+  </si>
+  <si>
+    <t>在雪之城呆了一段时间，你感觉怎么样？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是哪里？-aaa-10002|你是谁？-bbb-10003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然这里天气很冷，但是我能感受到你们雪人温暖的心-ccc-10005|这该死的天气！冷死了-ddd-10006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正是因为这里这么寒冷，雪人们才必须依靠彼此的温度生存下去！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪人可感觉不到温度哦！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你觉得冷吗？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是新来的同学吗？欢迎来参加我对雪之心最新研究的汇报讲座！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿闻其详-eee-10008|（扭头就走）-fff-10009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>#&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>￥</t>
+    </r>
+  </si>
+  <si>
+    <t>*&amp;……#&amp;￥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪之心*&amp;……#&amp;￥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,18 +199,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,26 +241,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,53 +613,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="21.25" customWidth="1"/>
-    <col min="14" max="15" width="23" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -644,34 +664,28 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -680,34 +694,28 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -716,15 +724,15 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -736,13 +744,11 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -756,34 +762,24 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1002</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2">
+    </row>
+    <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>10001</v>
       </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -792,34 +788,24 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1003</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>10002</v>
       </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -828,34 +814,24 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1004</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4444</v>
-      </c>
-      <c r="H8" s="2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>10003</v>
       </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -864,34 +840,26 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="2">
+    </row>
+    <row r="9" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>10004</v>
       </c>
+      <c r="B9" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -900,16 +868,22 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -920,16 +894,22 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10006</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -940,15 +920,21 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10007</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -960,16 +946,22 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>10008</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -980,16 +972,22 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>10009</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1000,13 +998,11 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1019,14 +1015,11 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1039,11 +1032,8 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1059,12 +1049,65 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Config/Excel/DialogueData.xlsx
+++ b/Config/Excel/DialogueData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\BL_Aki_SnowCity\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A1CAAF-1F86-4281-B0C7-7C552E006E37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A704AE54-26A1-4060-B691-B51976336206}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>LastWord</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴拉巴拉-事件名-NextID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -168,6 +164,26 @@
   </si>
   <si>
     <t>雪之心*&amp;……#&amp;￥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗行动力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交值改变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SocialChange</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -613,29 +629,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="1" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="37.875" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="11" width="21.25" customWidth="1"/>
-    <col min="12" max="13" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="40.75" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="14" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -646,16 +663,20 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -664,8 +685,10 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -676,16 +699,20 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -694,8 +721,10 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -714,8 +743,12 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -724,15 +757,15 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -744,8 +777,10 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -762,8 +797,10 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>10001</v>
       </c>
@@ -771,14 +808,18 @@
       <c r="C6" s="2">
         <v>10001</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -788,8 +829,10 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>10002</v>
       </c>
@@ -797,15 +840,19 @@
       <c r="C7" s="2">
         <v>10001</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -814,8 +861,10 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>10003</v>
       </c>
@@ -823,15 +872,19 @@
       <c r="C8" s="2">
         <v>10001</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -840,8 +893,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>10004</v>
       </c>
@@ -851,14 +906,18 @@
       <c r="C9" s="2">
         <v>10001</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -868,8 +927,10 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>10005</v>
       </c>
@@ -877,15 +938,19 @@
       <c r="C10" s="2">
         <v>10001</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -894,8 +959,10 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10006</v>
       </c>
@@ -903,15 +970,19 @@
       <c r="C11" s="2">
         <v>10001</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -920,8 +991,10 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10007</v>
       </c>
@@ -929,14 +1002,18 @@
       <c r="C12" s="2">
         <v>10002</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>-1</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -946,8 +1023,10 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10008</v>
       </c>
@@ -955,15 +1034,19 @@
       <c r="C13" s="2">
         <v>10002</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -972,8 +1055,10 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>10009</v>
       </c>
@@ -981,15 +1066,19 @@
       <c r="C14" s="2">
         <v>10002</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -998,8 +1087,10 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1015,8 +1106,10 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1032,8 +1125,10 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1049,62 +1144,80 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
